--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daure\Desktop\DF\STUDY\web-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1D605B-89D7-4CC7-915C-7E7194549C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808209AD-58FE-4BF1-AE69-1C5E20C2FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E5B6BB3-DEEF-4635-8454-C81C003D43E3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E5B6BB3-DEEF-4635-8454-C81C003D43E3}"/>
   </bookViews>
   <sheets>
     <sheet name="10nodes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t># of Hops</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>1000 sec</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Avg Hops</t>
+  </si>
+  <si>
+    <t>Avg Time</t>
+  </si>
+  <si>
+    <t>1500 sec</t>
+  </si>
+  <si>
+    <t>Del Prop</t>
   </si>
 </sst>
 </file>
@@ -399,23 +414,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BF19DE-A9AD-4CEB-8AC5-539E8A0C5820}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -426,807 +444,1507 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>890</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>535</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>645</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>954</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>475</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>885</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>895</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>986</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>860</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>932</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>506</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>596</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>935</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>754</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>748</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>639</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>793</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>685</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>236</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>869</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>665</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>924</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>869</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>563</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>965</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>748</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>647</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>413</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
-      <c r="B102">
-        <v>0</v>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>788</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>AVERAGE(A3:A102)</f>
+        <v>0.17</v>
+      </c>
+      <c r="B104">
+        <f>AVERAGE(B3:B102)</f>
+        <v>331.6</v>
+      </c>
+      <c r="C104">
+        <f>COUNTIF(A3:A102, "&lt;&gt;0")/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="D104">
+        <f>AVERAGE(D3:D102)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E104">
+        <f>AVERAGE(E3:E102)</f>
+        <v>713.33333333333337</v>
+      </c>
+      <c r="F104">
+        <f>COUNTIF(D3:D102, "&lt;&gt;0")/100</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H104">
+        <f>AVERAGE(H3:H102)</f>
+        <v>2.77</v>
+      </c>
+      <c r="I104">
+        <f>AVERAGE(I3:I102)</f>
+        <v>874.47297297297303</v>
+      </c>
+      <c r="J104">
+        <f>COUNTIF(H3:H102, "&lt;&gt;0")/100</f>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
